--- a/summary_statistics.xlsx
+++ b/summary_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diiim\Documents\job_uni\Master\Thesis\F1_project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9316A1-2358-4A39-829F-E01C3B1AC4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4EDF93-3742-4C71-BD1C-AC41B5BFB197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00F20CD5-9076-4934-BD9E-9259FE9C5D83}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00F20CD5-9076-4934-BD9E-9259FE9C5D83}"/>
   </bookViews>
   <sheets>
     <sheet name="concept" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="constructors | races" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>m1 v2</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Abbreviation</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>HAM</t>
   </si>
   <si>
@@ -154,6 +152,51 @@
   </si>
   <si>
     <t>Constructors</t>
+  </si>
+  <si>
+    <t>Races/qualifiers</t>
+  </si>
+  <si>
+    <t>Identifier n</t>
+  </si>
+  <si>
+    <t>Identifier k</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Caterham</t>
+  </si>
+  <si>
+    <t>McLaren</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>AlphaTauri</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Haas F1 Team</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Manor Marussia</t>
   </si>
 </sst>
 </file>
@@ -205,12 +248,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -528,7 +570,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,15 +589,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -571,38 +613,38 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -614,10 +656,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3">
         <v>0.25</v>
@@ -629,32 +671,32 @@
         <v>0.75</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -665,48 +707,48 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
         <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -718,135 +760,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6F3098-6069-4BB4-988E-A3197DF555E8}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" customWidth="1"/>
     <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>159</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>159</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>572</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>572</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>159</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>572</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>159</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>558</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>558</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>558</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
+      <c r="C7">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +929,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E53E74-8965-4E9B-8663-AD2E520C53D1}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -871,64 +944,60 @@
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -938,14 +1007,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2371D6-DA67-4EF5-9D2E-B09EE428D63D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -964,14 +1048,122 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39346CE-99EF-4233-BF1D-CD888CF2C534}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/summary_statistics.xlsx
+++ b/summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diiim\Documents\job_uni\Master\Thesis\F1_project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4EDF93-3742-4C71-BD1C-AC41B5BFB197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F656C-DAD7-4C08-A207-C7B6AA3820AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00F20CD5-9076-4934-BD9E-9259FE9C5D83}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00F20CD5-9076-4934-BD9E-9259FE9C5D83}"/>
   </bookViews>
   <sheets>
     <sheet name="concept" sheetId="1" r:id="rId1"/>
@@ -1007,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2371D6-DA67-4EF5-9D2E-B09EE428D63D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,6 +1027,311 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>C2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f t="shared" ref="C4:C52" si="0">C3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f>C31+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <f>C47+1</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39346CE-99EF-4233-BF1D-CD888CF2C534}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/summary_statistics.xlsx
+++ b/summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diiim\Documents\job_uni\Master\Thesis\F1_project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F656C-DAD7-4C08-A207-C7B6AA3820AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36835EE-1A73-443A-BF2C-D13479B47890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00F20CD5-9076-4934-BD9E-9259FE9C5D83}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00F20CD5-9076-4934-BD9E-9259FE9C5D83}"/>
   </bookViews>
   <sheets>
     <sheet name="concept" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>m1 v2</t>
   </si>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6F3098-6069-4BB4-988E-A3197DF555E8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,6 +920,9 @@
       </c>
       <c r="C7">
         <v>159</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2371D6-DA67-4EF5-9D2E-B09EE428D63D}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -1356,6 +1359,128 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA263B32-1228-448A-BAA9-64607595F1DB}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1471,18 +1596,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA263B32-1228-448A-BAA9-64607595F1DB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>